--- a/biology/Zoologie/Apricosiren/Apricosiren.xlsx
+++ b/biology/Zoologie/Apricosiren/Apricosiren.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Apricosiren ensomi
 Apricosiren est un genre fossile de salamandres. Il n'est représenté que par son espèce type, Apricosiren ensomi, et, en 2022, ce genre est resté monotypique.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Apricosiren et l'espèce Apricosiren ensomi ont été décrits en 2002 par Susan E. Evans (d) et Gerard J. McGowan[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Apricosiren et l'espèce Apricosiren ensomi ont été décrits en 2002 par Susan E. Evans (d) et Gerard J. McGowan.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aprocosiren est connu à travers la formation de Lulworth (d) datant du Berriasien dans le Sud de l'Angleterre[2],[3],[4]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aprocosiren est connu à travers la formation de Lulworth (d) datant du Berriasien dans le Sud de l'Angleterre
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Susan E. Evans et Gerard J. McGowan, « An amphibian assemblage from the Purbeck Limestone Group », Special Papers in Palaeontology, vol. 68,‎ 2002, p. 103-119. </t>
         </is>
